--- a/청년맞춤 요구사항.xlsx
+++ b/청년맞춤 요구사항.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>사용자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>마이페이지 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdasd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>3</v>
@@ -895,8 +899,11 @@
       <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>13</v>
@@ -905,7 +912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>14</v>
@@ -914,7 +921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>15</v>
@@ -923,7 +930,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
         <v>16</v>
@@ -932,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>9</v>
@@ -941,7 +948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>7</v>
@@ -950,7 +957,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>8</v>
@@ -959,7 +966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>17</v>
@@ -968,7 +975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
     </row>
   </sheetData>
